--- a/Test Document/Test_Cases.xlsx
+++ b/Test Document/Test_Cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="122">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -480,6 +480,9 @@
   </si>
   <si>
     <t>All the fields are not filled. (Meeting type is not selected)</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -827,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="E24" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,8 +842,7 @@
     <col min="4" max="4" width="44.109375" customWidth="1"/>
     <col min="5" max="5" width="32.21875" customWidth="1"/>
     <col min="6" max="6" width="55.6640625" customWidth="1"/>
-    <col min="7" max="7" width="50.88671875" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="7" max="8" width="50.88671875" customWidth="1"/>
     <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -895,8 +897,14 @@
       <c r="G2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>21</v>
       </c>
@@ -911,6 +919,12 @@
       </c>
       <c r="G3" t="s">
         <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -929,6 +943,12 @@
       <c r="G4" t="s">
         <v>25</v>
       </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -946,6 +966,12 @@
       <c r="G5" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
@@ -963,8 +989,14 @@
       <c r="G6" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>45</v>
       </c>
@@ -980,7 +1012,12 @@
       <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
@@ -998,6 +1035,12 @@
       <c r="G8" t="s">
         <v>50</v>
       </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1021,7 +1064,12 @@
       <c r="G9" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
@@ -1039,8 +1087,12 @@
       <c r="G10" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1064,8 +1116,14 @@
       <c r="G11" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>59</v>
       </c>
@@ -1080,6 +1138,12 @@
       </c>
       <c r="G12" s="2" t="s">
         <v>58</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -1098,6 +1162,12 @@
       <c r="G13" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="H13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
@@ -1115,8 +1185,14 @@
       <c r="G14" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="H14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -1132,8 +1208,14 @@
       <c r="G15" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="H15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>73</v>
       </c>
@@ -1149,8 +1231,14 @@
       <c r="G16" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1172,8 +1260,14 @@
       <c r="G17" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>79</v>
       </c>
@@ -1189,8 +1283,14 @@
       <c r="G18" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>80</v>
       </c>
@@ -1206,8 +1306,14 @@
       <c r="G19" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1229,8 +1335,14 @@
       <c r="G20" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>91</v>
       </c>
@@ -1246,8 +1358,14 @@
       <c r="G21" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>92</v>
       </c>
@@ -1263,8 +1381,14 @@
       <c r="G22" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>93</v>
       </c>
@@ -1280,8 +1404,14 @@
       <c r="G23" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>94</v>
       </c>
@@ -1297,8 +1427,14 @@
       <c r="G24" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>111</v>
       </c>
@@ -1314,8 +1450,14 @@
       <c r="G25" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>112</v>
       </c>
@@ -1330,6 +1472,12 @@
       </c>
       <c r="G26" s="2" t="s">
         <v>119</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
